--- a/artfynd/A 32329-2021.xlsx
+++ b/artfynd/A 32329-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,6 +1052,125 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>94973710</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>pulli/nyligen flygga ungar</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>S Bådamossen A 32329-2021, Hl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>332576</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6380968</v>
+      </c>
+      <c r="S5" t="n">
+        <v>100</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Halland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Kungsbacka</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Halland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Tölö</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2021-07-19</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2021-07-19</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Två vuxna minst 2 juvenila</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Christer Johansson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Christer Johansson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
